--- a/data/Subset1_WithDialogActs/Math NL4 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math NL4 transcript.xlsx_with_dialog_acts.xlsx
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1689,12 +1689,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2319,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2739,12 +2739,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3709,12 +3709,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4305,12 +4305,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4771,12 +4771,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5699,12 +5699,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5825,12 +5825,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6161,12 +6161,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6497,12 +6497,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7295,12 +7295,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7337,12 +7337,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7379,12 +7379,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7589,12 +7589,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7799,12 +7799,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7929,12 +7929,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8055,12 +8055,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8225,12 +8225,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8267,12 +8267,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8897,12 +8897,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9233,12 +9233,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10341,12 +10341,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10471,12 +10471,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10555,12 +10555,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10681,12 +10681,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10891,12 +10891,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11995,12 +11995,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12205,12 +12205,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12499,12 +12499,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12877,12 +12877,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13465,12 +13465,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13591,12 +13591,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13759,12 +13759,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14851,12 +14851,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15187,12 +15187,12 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15313,12 +15313,12 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15355,12 +15355,12 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15439,12 +15439,12 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15859,12 +15859,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15985,12 +15985,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16821,12 +16821,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17241,12 +17241,12 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17871,12 +17871,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18333,12 +18333,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18417,12 +18417,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18669,12 +18669,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19047,12 +19047,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19089,12 +19089,12 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19131,12 +19131,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19891,12 +19891,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20311,12 +20311,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20983,12 +20983,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21193,12 +21193,12 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21529,12 +21529,12 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22209,12 +22209,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23053,12 +23053,12 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23179,12 +23179,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23305,12 +23305,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23515,12 +23515,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24271,12 +24271,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24607,12 +24607,12 @@
       <c r="H574" t="inlineStr"/>
       <c r="I574" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24649,12 +24649,12 @@
       <c r="H575" t="inlineStr"/>
       <c r="I575" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24859,12 +24859,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24943,12 +24943,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25405,12 +25405,12 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25741,12 +25741,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25909,12 +25909,12 @@
       <c r="H605" t="inlineStr"/>
       <c r="I605" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26761,12 +26761,12 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27013,12 +27013,12 @@
       <c r="H631" t="inlineStr"/>
       <c r="I631" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27601,12 +27601,12 @@
       <c r="H645" t="inlineStr"/>
       <c r="I645" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27685,12 +27685,12 @@
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28319,12 +28319,12 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28739,12 +28739,12 @@
       <c r="H672" t="inlineStr"/>
       <c r="I672" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28823,12 +28823,12 @@
       <c r="H674" t="inlineStr"/>
       <c r="I674" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29369,12 +29369,12 @@
       <c r="H687" t="inlineStr"/>
       <c r="I687" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29579,12 +29579,12 @@
       <c r="H692" t="inlineStr"/>
       <c r="I692" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29663,12 +29663,12 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29747,12 +29747,12 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29789,12 +29789,12 @@
       <c r="H697" t="inlineStr"/>
       <c r="I697" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29873,12 +29873,12 @@
       <c r="H699" t="inlineStr"/>
       <c r="I699" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29915,12 +29915,12 @@
       <c r="H700" t="inlineStr"/>
       <c r="I700" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29957,12 +29957,12 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30293,12 +30293,12 @@
       <c r="H709" t="inlineStr"/>
       <c r="I709" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
